--- a/biology/Médecine/Stomatol/Stomatol.xlsx
+++ b/biology/Médecine/Stomatol/Stomatol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stomatol (du grec stoma, bouche, et du latin oleum, huile) est une marque de dentifrice suédoise apparue au début du XXe siècle, qui commence sous la forme d'un liquide antiseptique à usage bucco-dentaire, inventé en 1895 par le dentiste Albin Lenhardtson. Le dentifrice est à l'origine produit et commercialisé par l'entreprise Grumme &amp; Son.
 Le remède est tout d'abord utilisé en gargarismes pour les infections de la gorge. Le principe actif en serait le terpinol (un mélange de terpinéol, de terpinène et d'autres terpènes), sous-produit de la térébenthine. La composition du dentifrice commercialisé aujourd'hui est toutefois différente de celle des origines, et Stomatol doit être considéré comme une marque et non comme le nom du principe actif.
